--- a/data_and_code/Uji Outlier.xlsx
+++ b/data_and_code/Uji Outlier.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2020\_R_Project\rev_drainase_purwakarta\data_and_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803B5C7-0D12-4AC9-9516-014B7EB3C4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B2766-1252-405B-8D83-A8E5F3A39282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="17490" windowHeight="11550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OUTLIER" sheetId="7" r:id="rId1"/>
     <sheet name="tabel_kn" sheetId="9" r:id="rId2"/>
-    <sheet name="TREND" sheetId="1" state="hidden" r:id="rId3"/>
-    <sheet name="TREND_PER 2 MGG" sheetId="8" state="hidden" r:id="rId4"/>
-    <sheet name="STASIONER" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="PERSISTENSI" sheetId="3" state="hidden" r:id="rId6"/>
-    <sheet name="TABEL tc" sheetId="4" state="hidden" r:id="rId7"/>
-    <sheet name="TABEL F" sheetId="6" state="hidden" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="5" state="hidden" r:id="rId9"/>
+    <sheet name="tabel_kn_susun" sheetId="10" r:id="rId3"/>
+    <sheet name="TREND" sheetId="1" state="hidden" r:id="rId4"/>
+    <sheet name="TREND_PER 2 MGG" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="STASIONER" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="PERSISTENSI" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="TABEL tc" sheetId="4" state="hidden" r:id="rId8"/>
+    <sheet name="TABEL F" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="5" state="hidden" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_A" hidden="1">'[1]Hujan BUlanan'!$L$19:$L$64</definedName>
@@ -39,156 +40,156 @@
     <definedName name="_1__123Graph_APROB_1" hidden="1">'[1]Hujan BUlanan'!$L$19:$L$64</definedName>
     <definedName name="_2__123Graph_BPROB_1" hidden="1">#N/A</definedName>
     <definedName name="_3__123Graph_XPROB_1" hidden="1">'[1]Hujan BUlanan'!$Q$19:$Q$69</definedName>
-    <definedName name="_Dua100" localSheetId="3">#REF!</definedName>
+    <definedName name="_Dua100" localSheetId="4">#REF!</definedName>
     <definedName name="_Dua100">#REF!</definedName>
-    <definedName name="_Dua5" localSheetId="3">#REF!</definedName>
+    <definedName name="_Dua5" localSheetId="4">#REF!</definedName>
     <definedName name="_Dua5">#REF!</definedName>
     <definedName name="_Fill" hidden="1">'[1]Hujan BUlanan'!$AN$18:$AN$30</definedName>
     <definedName name="_Key1" hidden="1">'[1]Hujan BUlanan'!$L$19:$L$62</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
-    <definedName name="_Se100" localSheetId="3">#REF!</definedName>
+    <definedName name="_Se100" localSheetId="4">#REF!</definedName>
     <definedName name="_Se100">#REF!</definedName>
     <definedName name="_Sort" hidden="1">'[1]Hujan BUlanan'!$L$19:$L$62</definedName>
     <definedName name="_Tp03">[2]R_rerata!$F$17</definedName>
     <definedName name="A">[2]R_rerata!$G$24</definedName>
     <definedName name="Alfa">[2]R_rerata!$F$8</definedName>
     <definedName name="CS">'[3]Tab-LG3'!$B$12:$B$72</definedName>
-    <definedName name="Dua" localSheetId="3">#REF!</definedName>
+    <definedName name="Dua" localSheetId="4">#REF!</definedName>
     <definedName name="Dua">#REF!</definedName>
     <definedName name="HB">#N/A</definedName>
-    <definedName name="i" localSheetId="3">#REF!</definedName>
+    <definedName name="i" localSheetId="4">#REF!</definedName>
     <definedName name="i">#REF!</definedName>
-    <definedName name="IGWS" localSheetId="3">#REF!</definedName>
+    <definedName name="IGWS" localSheetId="4">#REF!</definedName>
     <definedName name="IGWS">#REF!</definedName>
-    <definedName name="ISM" localSheetId="3">#REF!</definedName>
+    <definedName name="ISM" localSheetId="4">#REF!</definedName>
     <definedName name="ISM">#REF!</definedName>
-    <definedName name="k" localSheetId="3">#REF!</definedName>
+    <definedName name="k" localSheetId="4">#REF!</definedName>
     <definedName name="k">#REF!</definedName>
     <definedName name="KP">'TREND_PER 2 MGG'!$R$52</definedName>
     <definedName name="L">[2]R_rerata!$F$5</definedName>
-    <definedName name="Lembor_89" localSheetId="3">#REF!</definedName>
+    <definedName name="Lembor_89" localSheetId="4">#REF!</definedName>
     <definedName name="Lembor_89">#REF!</definedName>
-    <definedName name="Lembor_90" localSheetId="3">#REF!</definedName>
+    <definedName name="Lembor_90" localSheetId="4">#REF!</definedName>
     <definedName name="Lembor_90">#REF!</definedName>
-    <definedName name="Lembor_91" localSheetId="3">#REF!</definedName>
+    <definedName name="Lembor_91" localSheetId="4">#REF!</definedName>
     <definedName name="Lembor_91">#REF!</definedName>
-    <definedName name="Lembor_92" localSheetId="3">#REF!</definedName>
+    <definedName name="Lembor_92" localSheetId="4">#REF!</definedName>
     <definedName name="Lembor_92">#REF!</definedName>
-    <definedName name="Lembor_93" localSheetId="3">#REF!</definedName>
+    <definedName name="Lembor_93" localSheetId="4">#REF!</definedName>
     <definedName name="Lembor_93">#REF!</definedName>
-    <definedName name="Lembor_94" localSheetId="3">#REF!</definedName>
+    <definedName name="Lembor_94" localSheetId="4">#REF!</definedName>
     <definedName name="Lembor_94">#REF!</definedName>
-    <definedName name="Lembor_95" localSheetId="3">#REF!</definedName>
+    <definedName name="Lembor_95" localSheetId="4">#REF!</definedName>
     <definedName name="Lembor_95">#REF!</definedName>
-    <definedName name="Lembor_96" localSheetId="3">#REF!</definedName>
+    <definedName name="Lembor_96" localSheetId="4">#REF!</definedName>
     <definedName name="Lembor_96">#REF!</definedName>
-    <definedName name="Lembor_97" localSheetId="3">#REF!</definedName>
+    <definedName name="Lembor_97" localSheetId="4">#REF!</definedName>
     <definedName name="Lembor_97">#REF!</definedName>
-    <definedName name="Lembor_98" localSheetId="3">#REF!</definedName>
+    <definedName name="Lembor_98" localSheetId="4">#REF!</definedName>
     <definedName name="Lembor_98">#REF!</definedName>
     <definedName name="Lima">'[3]Tab-LG3'!$I$12:$I$72</definedName>
-    <definedName name="Lima10" localSheetId="3">#REF!</definedName>
+    <definedName name="Lima10" localSheetId="4">#REF!</definedName>
     <definedName name="Lima10">#REF!</definedName>
     <definedName name="LuasDPS">[2]R_rerata!$F$6</definedName>
-    <definedName name="m" localSheetId="3">#REF!</definedName>
+    <definedName name="m" localSheetId="4">#REF!</definedName>
     <definedName name="m">#REF!</definedName>
-    <definedName name="Mautenda_89" localSheetId="3">#REF!</definedName>
+    <definedName name="Mautenda_89" localSheetId="4">#REF!</definedName>
     <definedName name="Mautenda_89">#REF!</definedName>
-    <definedName name="Mautenda_90" localSheetId="3">#REF!</definedName>
+    <definedName name="Mautenda_90" localSheetId="4">#REF!</definedName>
     <definedName name="Mautenda_90">#REF!</definedName>
-    <definedName name="Mautenda_91" localSheetId="3">#REF!</definedName>
+    <definedName name="Mautenda_91" localSheetId="4">#REF!</definedName>
     <definedName name="Mautenda_91">#REF!</definedName>
-    <definedName name="Mautenda_92" localSheetId="3">#REF!</definedName>
+    <definedName name="Mautenda_92" localSheetId="4">#REF!</definedName>
     <definedName name="Mautenda_92">#REF!</definedName>
-    <definedName name="Mautenda_93" localSheetId="3">#REF!</definedName>
+    <definedName name="Mautenda_93" localSheetId="4">#REF!</definedName>
     <definedName name="Mautenda_93">#REF!</definedName>
-    <definedName name="Mautenda_94" localSheetId="3">#REF!</definedName>
+    <definedName name="Mautenda_94" localSheetId="4">#REF!</definedName>
     <definedName name="Mautenda_94">#REF!</definedName>
-    <definedName name="Mautenda_95" localSheetId="3">#REF!</definedName>
+    <definedName name="Mautenda_95" localSheetId="4">#REF!</definedName>
     <definedName name="Mautenda_95">#REF!</definedName>
-    <definedName name="Mautenda_96" localSheetId="3">#REF!</definedName>
+    <definedName name="Mautenda_96" localSheetId="4">#REF!</definedName>
     <definedName name="Mautenda_96">#REF!</definedName>
-    <definedName name="Mautenda_97" localSheetId="3">#REF!</definedName>
+    <definedName name="Mautenda_97" localSheetId="4">#REF!</definedName>
     <definedName name="Mautenda_97">#REF!</definedName>
-    <definedName name="Mautenda_98" localSheetId="3">#REF!</definedName>
+    <definedName name="Mautenda_98" localSheetId="4">#REF!</definedName>
     <definedName name="Mautenda_98">#REF!</definedName>
-    <definedName name="Mokel_89" localSheetId="3">#REF!</definedName>
+    <definedName name="Mokel_89" localSheetId="4">#REF!</definedName>
     <definedName name="Mokel_89">#REF!</definedName>
-    <definedName name="Mokel_90" localSheetId="3">#REF!</definedName>
+    <definedName name="Mokel_90" localSheetId="4">#REF!</definedName>
     <definedName name="Mokel_90">#REF!</definedName>
-    <definedName name="Mokel_91" localSheetId="3">#REF!</definedName>
+    <definedName name="Mokel_91" localSheetId="4">#REF!</definedName>
     <definedName name="Mokel_91">#REF!</definedName>
-    <definedName name="Mokel_92" localSheetId="3">#REF!</definedName>
+    <definedName name="Mokel_92" localSheetId="4">#REF!</definedName>
     <definedName name="Mokel_92">#REF!</definedName>
-    <definedName name="Mokel_93" localSheetId="3">#REF!</definedName>
+    <definedName name="Mokel_93" localSheetId="4">#REF!</definedName>
     <definedName name="Mokel_93">#REF!</definedName>
-    <definedName name="Mokel_94" localSheetId="3">#REF!</definedName>
+    <definedName name="Mokel_94" localSheetId="4">#REF!</definedName>
     <definedName name="Mokel_94">#REF!</definedName>
-    <definedName name="Mokel_95" localSheetId="3">#REF!</definedName>
+    <definedName name="Mokel_95" localSheetId="4">#REF!</definedName>
     <definedName name="Mokel_95">#REF!</definedName>
-    <definedName name="Mokel_96" localSheetId="3">#REF!</definedName>
+    <definedName name="Mokel_96" localSheetId="4">#REF!</definedName>
     <definedName name="Mokel_96">#REF!</definedName>
-    <definedName name="Mokel_97" localSheetId="3">#REF!</definedName>
+    <definedName name="Mokel_97" localSheetId="4">#REF!</definedName>
     <definedName name="Mokel_97">#REF!</definedName>
-    <definedName name="Mokel_98" localSheetId="3">#REF!</definedName>
+    <definedName name="Mokel_98" localSheetId="4">#REF!</definedName>
     <definedName name="Mokel_98">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">OUTLIER!$B$3:$J$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">PERSISTENSI!$B$2:$K$71</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">STASIONER!$B$2:$I$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'TABEL tc'!$B$2:$G$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">TREND!$Q$2:$W$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'TREND_PER 2 MGG'!$Q$2:$W$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">PERSISTENSI!$B$2:$K$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">STASIONER!$B$2:$I$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'TABEL tc'!$B$2:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">TREND!$Q$2:$W$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'TREND_PER 2 MGG'!$Q$2:$W$66</definedName>
     <definedName name="Print_Area_MI">[4]Sheet1!$B$2:$R$120</definedName>
     <definedName name="QB">#N/A</definedName>
     <definedName name="Qp">[2]R_rerata!$F$13</definedName>
-    <definedName name="Re_Soa" localSheetId="3">#REF!</definedName>
+    <definedName name="Re_Soa" localSheetId="4">#REF!</definedName>
     <definedName name="Re_Soa">#REF!</definedName>
     <definedName name="Rerata_DAS_Baing">'[5]SUBWS BAING'!$A$7:$AM$126</definedName>
-    <definedName name="Rerata_DI_Lembor" localSheetId="3">#REF!</definedName>
+    <definedName name="Rerata_DI_Lembor" localSheetId="4">#REF!</definedName>
     <definedName name="Rerata_DI_Lembor">#REF!</definedName>
-    <definedName name="Rerata_DI_Mokel" localSheetId="3">#REF!</definedName>
+    <definedName name="Rerata_DI_Mokel" localSheetId="4">#REF!</definedName>
     <definedName name="Rerata_DI_Mokel">#REF!</definedName>
-    <definedName name="Rerata_DI_Soa" localSheetId="3">#REF!</definedName>
+    <definedName name="Rerata_DI_Soa" localSheetId="4">#REF!</definedName>
     <definedName name="Rerata_DI_Soa">#REF!</definedName>
     <definedName name="Ro">[2]R_rerata!$F$7</definedName>
-    <definedName name="satu2" localSheetId="3">#REF!</definedName>
+    <definedName name="satu2" localSheetId="4">#REF!</definedName>
     <definedName name="satu2">#REF!</definedName>
-    <definedName name="satu80" localSheetId="3">#REF!</definedName>
+    <definedName name="satu80" localSheetId="4">#REF!</definedName>
     <definedName name="satu80">#REF!</definedName>
-    <definedName name="satu90" localSheetId="3">#REF!</definedName>
+    <definedName name="satu90" localSheetId="4">#REF!</definedName>
     <definedName name="satu90">#REF!</definedName>
-    <definedName name="satu95" localSheetId="3">#REF!</definedName>
+    <definedName name="satu95" localSheetId="4">#REF!</definedName>
     <definedName name="satu95">#REF!</definedName>
-    <definedName name="satu99" localSheetId="3">#REF!</definedName>
+    <definedName name="satu99" localSheetId="4">#REF!</definedName>
     <definedName name="satu99">#REF!</definedName>
-    <definedName name="Sepuluh" localSheetId="3">#REF!</definedName>
+    <definedName name="Sepuluh" localSheetId="4">#REF!</definedName>
     <definedName name="Sepuluh">#REF!</definedName>
-    <definedName name="seribu" localSheetId="3">#REF!</definedName>
+    <definedName name="seribu" localSheetId="4">#REF!</definedName>
     <definedName name="seribu">#REF!</definedName>
-    <definedName name="SMC" localSheetId="3">#REF!</definedName>
+    <definedName name="SMC" localSheetId="4">#REF!</definedName>
     <definedName name="SMC">#REF!</definedName>
-    <definedName name="Soa_89" localSheetId="3">#REF!</definedName>
+    <definedName name="Soa_89" localSheetId="4">#REF!</definedName>
     <definedName name="Soa_89">#REF!</definedName>
-    <definedName name="Soa_90" localSheetId="3">#REF!</definedName>
+    <definedName name="Soa_90" localSheetId="4">#REF!</definedName>
     <definedName name="Soa_90">#REF!</definedName>
-    <definedName name="Soa_91" localSheetId="3">#REF!</definedName>
+    <definedName name="Soa_91" localSheetId="4">#REF!</definedName>
     <definedName name="Soa_91">#REF!</definedName>
-    <definedName name="Soa_92" localSheetId="3">#REF!</definedName>
+    <definedName name="Soa_92" localSheetId="4">#REF!</definedName>
     <definedName name="Soa_92">#REF!</definedName>
-    <definedName name="Soa_93" localSheetId="3">#REF!</definedName>
+    <definedName name="Soa_93" localSheetId="4">#REF!</definedName>
     <definedName name="Soa_93">#REF!</definedName>
-    <definedName name="Soa_94" localSheetId="3">#REF!</definedName>
+    <definedName name="Soa_94" localSheetId="4">#REF!</definedName>
     <definedName name="Soa_94">#REF!</definedName>
-    <definedName name="Soa_95" localSheetId="3">#REF!</definedName>
+    <definedName name="Soa_95" localSheetId="4">#REF!</definedName>
     <definedName name="Soa_95">#REF!</definedName>
-    <definedName name="Soa_96" localSheetId="3">#REF!</definedName>
+    <definedName name="Soa_96" localSheetId="4">#REF!</definedName>
     <definedName name="Soa_96">#REF!</definedName>
-    <definedName name="Soa_97" localSheetId="3">#REF!</definedName>
+    <definedName name="Soa_97" localSheetId="4">#REF!</definedName>
     <definedName name="Soa_97">#REF!</definedName>
-    <definedName name="Soa_98" localSheetId="3">#REF!</definedName>
+    <definedName name="Soa_98" localSheetId="4">#REF!</definedName>
     <definedName name="Soa_98">#REF!</definedName>
     <definedName name="Tabel_CS">'[6]Koefisien Cs dan G'!$B$10:$J$46</definedName>
-    <definedName name="tahunan" localSheetId="3">#REF!</definedName>
+    <definedName name="tahunan" localSheetId="4">#REF!</definedName>
     <definedName name="tahunan">#REF!</definedName>
     <definedName name="tg">[2]R_rerata!$F$9</definedName>
     <definedName name="Tp">[2]R_rerata!$F$15</definedName>
@@ -214,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="145">
   <si>
     <t>DATA  CURAH  HUJAN BULANAN</t>
   </si>
@@ -4433,7 +4434,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4469,7 +4470,7 @@
         <xdr:cNvPr id="3" name="Right Brace 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4540,7 +4541,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4595,7 +4596,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4650,7 +4651,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4712,7 +4713,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4774,7 +4775,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4812,7 +4813,7 @@
         <xdr:cNvPr id="3" name="Right Brace 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4883,7 +4884,7 @@
                   <a14:compatExt spid="_x0000_s11265"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000012C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000012C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4938,7 +4939,7 @@
                   <a14:compatExt spid="_x0000_s11266"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000022C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000022C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4993,7 +4994,7 @@
                   <a14:compatExt spid="_x0000_s11267"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000032C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000032C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5055,7 +5056,7 @@
                   <a14:compatExt spid="_x0000_s11268"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000042C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000042C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5117,7 +5118,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5188,7 +5189,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5255,7 +5256,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5309,7 +5310,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5353,7 +5354,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5410,7 +5411,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5542,7 +5543,7 @@
         <xdr:cNvPr id="2" name="Right Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5613,7 +5614,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5675,7 +5676,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5737,7 +5738,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000030C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5792,7 +5793,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5848,7 +5849,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23486,6 +23487,36 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -23498,43 +23529,13 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:D21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>$F$68</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>$F$67</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>$F$68</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D31">
@@ -23606,12 +23607,26 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA279F3C-09E7-4D0E-879F-6C0DC8B6A3E3}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24065,6 +24080,524 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C70BD2-FF18-44A9-9CE3-7E27196C6F41}">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="243" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="244" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="245">
+        <v>10</v>
+      </c>
+      <c r="B2" s="246">
+        <v>2.036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="245">
+        <f>A2+1</f>
+        <v>11</v>
+      </c>
+      <c r="B3" s="246">
+        <v>2.0880000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="245">
+        <f t="shared" ref="A4:A14" si="0">A3+1</f>
+        <v>12</v>
+      </c>
+      <c r="B4" s="246">
+        <v>2.1339999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="245">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="246">
+        <v>2.1749999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="245">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B6" s="246">
+        <v>2.2130000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="245">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="246">
+        <v>2.2469999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="245">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="246">
+        <v>2.2789999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="245">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="246">
+        <v>2.3090000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="245">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="246">
+        <v>2.335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="245">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B11" s="246">
+        <v>2.3610000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="245">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B12" s="246">
+        <v>2.3849999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="245">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B13" s="246">
+        <v>2.4079999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="245">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B14" s="246">
+        <v>2.4289999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="247">
+        <f>A14+1</f>
+        <v>23</v>
+      </c>
+      <c r="B15" s="248">
+        <v>2.448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="245">
+        <f>A15+1</f>
+        <v>24</v>
+      </c>
+      <c r="B16" s="246">
+        <v>2.4670000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="245">
+        <f>A16+1</f>
+        <v>25</v>
+      </c>
+      <c r="B17" s="246">
+        <v>2.4860000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="245">
+        <f t="shared" ref="A18:A28" si="1">A17+1</f>
+        <v>26</v>
+      </c>
+      <c r="B18" s="246">
+        <v>2.5019999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="245">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B19" s="246">
+        <v>2.5190000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="245">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B20" s="246">
+        <v>2.5339999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="245">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B21" s="246">
+        <v>2.5489999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="245">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B22" s="246">
+        <v>2.5630000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="245">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B23" s="246">
+        <v>2.577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="245">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B24" s="246">
+        <v>2.5910000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="245">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B25" s="246">
+        <v>2.6040000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="245">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B26" s="246">
+        <v>2.6160000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="245">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B27" s="246">
+        <v>2.6280000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="245">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B28" s="246">
+        <v>2.6389999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="247">
+        <f>A28+1</f>
+        <v>37</v>
+      </c>
+      <c r="B29" s="248">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="245">
+        <f>A29+1</f>
+        <v>38</v>
+      </c>
+      <c r="B30" s="246">
+        <v>2.661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="245">
+        <f>A30+1</f>
+        <v>39</v>
+      </c>
+      <c r="B31" s="246">
+        <v>2.6709999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="245">
+        <f t="shared" ref="A32:A42" si="2">A31+1</f>
+        <v>40</v>
+      </c>
+      <c r="B32" s="246">
+        <v>2.6819999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="245">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B33" s="246">
+        <v>2.6920000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="245">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B34" s="246">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="245">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B35" s="246">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="245">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B36" s="246">
+        <v>2.7189999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="245">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B37" s="246">
+        <v>2.7269999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="245">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B38" s="246">
+        <v>2.7360000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="245">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B39" s="246">
+        <v>2.7440000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="245">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B40" s="246">
+        <v>2.7530000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="245">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B41" s="246">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="245">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B42" s="246">
+        <v>2.7679999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="247">
+        <v>55</v>
+      </c>
+      <c r="B43" s="248">
+        <v>2.8039999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="245">
+        <v>60</v>
+      </c>
+      <c r="B44" s="246">
+        <v>2.8370000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="245">
+        <f>A44+5</f>
+        <v>65</v>
+      </c>
+      <c r="B45" s="246">
+        <v>2.8660000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="245">
+        <f t="shared" ref="A46:A52" si="3">A45+5</f>
+        <v>70</v>
+      </c>
+      <c r="B46" s="246">
+        <v>2.8929999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="245">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B47" s="246">
+        <v>2.9169999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="245">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="B48" s="246">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="245">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="B49" s="246">
+        <v>2.9609999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="245">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B50" s="246">
+        <v>2.9809999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="245">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B51" s="246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="245">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B52" s="246">
+        <v>3.0169999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="245">
+        <f>A52+10</f>
+        <v>110</v>
+      </c>
+      <c r="B53" s="246">
+        <v>3.0489999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="245">
+        <f t="shared" ref="A54:A56" si="4">A53+10</f>
+        <v>120</v>
+      </c>
+      <c r="B54" s="246">
+        <v>3.0779999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="245">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="B55" s="246">
+        <v>3.1040000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="245">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="B56" s="246">
+        <v>3.129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -26604,7 +27137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -29188,7 +29721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:P53"/>
   <sheetViews>
@@ -30329,7 +30862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -31485,7 +32018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:T46"/>
   <sheetViews>
@@ -32267,7 +32800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -33733,18 +34266,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>